--- a/data/tshirt_info_2025.xlsx
+++ b/data/tshirt_info_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idasom/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B0750D-D947-1D43-8963-39C1FAF27769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940B81E3-2C32-7549-AC5B-75B2A4AED3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26940" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26940" windowHeight="16720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="181">
   <si>
     <t>불참</t>
   </si>
@@ -1796,18 +1796,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>목사님</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>부장집사님</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>총무집사님</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1952,7 +1940,287 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>94명</t>
+    <t>일청+임팀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 94</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>김지호 티셔츠 주문 x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>됩니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건하(5)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이로하(3)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정다솜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(41)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정다솜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(41)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상우</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>김나은</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여유분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">m </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이즈에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여유분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">여진이한테 한번 더 물어보고 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상우(목사님)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽동수(부장집사님)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>민경민(총무집사님)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>김나은(사모님)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1960,7 +2228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2083,14 +2351,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -2098,8 +2358,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2154,6 +2434,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2176,7 +2468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2229,13 +2521,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2273,6 +2562,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2489,10 +2802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C42A37-FE26-DE45-943B-376FF56358BA}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="87" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A56" zoomScale="87" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3195,7 +3508,7 @@
       <c r="C57" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3293,7 +3606,7 @@
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>82</v>
@@ -3465,81 +3778,85 @@
       </c>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>142</v>
-      </c>
+      <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>107</v>
@@ -3547,7 +3864,7 @@
     </row>
     <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>90</v>
@@ -3558,7 +3875,7 @@
     </row>
     <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>90</v>
@@ -3569,7 +3886,7 @@
     </row>
     <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>90</v>
@@ -3580,7 +3897,7 @@
     </row>
     <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>90</v>
@@ -3591,10 +3908,10 @@
     </row>
     <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>107</v>
@@ -3602,32 +3919,32 @@
     </row>
     <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>89</v>
+        <v>45</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>117</v>
+      <c r="A90" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>92</v>
+      <c r="A91" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>107</v>
@@ -3635,84 +3952,86 @@
     </row>
     <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>109</v>
+      <c r="A93" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>64</v>
+      <c r="A94" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="6" t="s">
+      <c r="B99" s="1"/>
+      <c r="C99" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1" t="s">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="6" t="s">
@@ -3721,10 +4040,19 @@
     </row>
     <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3736,81 +4064,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8395F50F-AC05-0E43-A927-68BD17E39351}">
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="12"/>
+    <col min="1" max="9" width="8.83203125" style="12"/>
+    <col min="10" max="10" width="17.33203125" style="12" customWidth="1"/>
+    <col min="11" max="23" width="8.83203125" style="12"/>
+    <col min="24" max="25" width="26.5" style="12" customWidth="1"/>
+    <col min="26" max="16384" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="K1" s="15"/>
-      <c r="L1" s="14" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15">
+        <v>110</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="30">
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15">
+        <v>2</v>
+      </c>
+      <c r="O2" s="29">
         <v>8</v>
       </c>
-      <c r="M2" s="15">
-        <v>20</v>
-      </c>
-      <c r="N2" s="15">
-        <v>19</v>
-      </c>
-      <c r="O2" s="15">
+      <c r="P2" s="15">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>21</v>
+      </c>
+      <c r="R2" s="15">
         <v>32</v>
       </c>
-      <c r="P2" s="15">
+      <c r="S2" s="15">
         <v>12</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="T2" s="15">
         <v>1</v>
       </c>
-      <c r="R2" s="15">
+      <c r="U2" s="15">
         <v>1</v>
       </c>
-      <c r="S2" s="32">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="V2" s="31">
+        <v>108</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>153</v>
       </c>
@@ -3835,18 +4178,23 @@
       <c r="I3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="1"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="31"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
       <c r="T3" s="15"/>
-    </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="U3" s="13"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -3871,33 +4219,44 @@
       <c r="I4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="15">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="15">
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="R4" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="14" x14ac:dyDescent="0.15">
+      <c r="U4" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="X4" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -3923,28 +4282,33 @@
         <v>90</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="15">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="15">
         <v>2</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="17"/>
-    </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="T5" s="15"/>
+      <c r="U5" s="17"/>
+    </row>
+    <row r="6" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -3970,28 +4334,31 @@
         <v>83</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="15">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="15">
         <v>3</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="N6" s="15"/>
+      <c r="O6" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="17"/>
-    </row>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="T6" s="15"/>
+      <c r="U6" s="17"/>
+    </row>
+    <row r="7" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -4016,29 +4383,32 @@
       <c r="I7" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="15">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="15">
         <v>4</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="N7" s="15"/>
+      <c r="O7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="16"/>
-    </row>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="T7" s="15"/>
+      <c r="U7" s="16"/>
+    </row>
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -4064,28 +4434,31 @@
         <v>133</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="15">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="15">
         <v>5</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="N8" s="15"/>
+      <c r="O8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="S8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="16"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="T8" s="15"/>
+      <c r="U8" s="16"/>
+    </row>
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
@@ -4110,27 +4483,30 @@
       <c r="I9" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="15">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="15">
         <v>6</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="N9" s="15"/>
+      <c r="O9" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -4150,32 +4526,35 @@
         <v>82</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>82</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="15">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="15">
         <v>7</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="Q10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -4197,27 +4576,30 @@
       <c r="H11" s="4"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="15">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="15">
         <v>8</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="N11" s="15"/>
+      <c r="O11" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q11" s="15"/>
-    </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="T11" s="15"/>
+    </row>
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -4238,26 +4620,29 @@
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="15">
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="15">
         <v>9</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q12" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="S12" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="Q12" s="15"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="T12" s="15"/>
+    </row>
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -4279,25 +4664,28 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="15">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="15">
         <v>10</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q13" s="15"/>
-    </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="T13" s="15"/>
+    </row>
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -4319,25 +4707,28 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="15">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="15">
         <v>11</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q14" s="15"/>
-    </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="T14" s="15"/>
+    </row>
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -4359,32 +4750,35 @@
       <c r="H15" s="4"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="15">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="15">
         <v>12</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="R15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="S15" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="Q15" s="15"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="T15" s="15"/>
+    </row>
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -4392,229 +4786,255 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
-      <c r="K16" s="15">
+      <c r="M16" s="15">
         <v>13</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="6" t="s">
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-    </row>
-    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+    </row>
+    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="K17" s="15">
+      <c r="M17" s="15">
         <v>14</v>
       </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="4" t="s">
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-    </row>
-    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+    </row>
+    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="K18" s="15">
+      <c r="M18" s="15">
         <v>15</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="Q18" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="C19" s="4"/>
-      <c r="K19" s="15">
+      <c r="M19" s="15">
         <v>16</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-    </row>
-    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+    </row>
+    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="K20" s="15">
+      <c r="M20" s="15">
         <v>17</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="R20" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="Q20" s="15"/>
-    </row>
-    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="T20" s="15"/>
+    </row>
+    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="E21" s="16"/>
-      <c r="K21" s="15">
+      <c r="M21" s="15">
         <v>18</v>
       </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="Q21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q21" s="15"/>
-    </row>
-    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="T21" s="15"/>
+    </row>
+    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="K22" s="15">
+      <c r="M22" s="15">
         <v>19</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="R22" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="Q22" s="15"/>
-    </row>
-    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="T22" s="15"/>
+    </row>
+    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="K23" s="15">
+      <c r="M23" s="15">
         <v>20</v>
       </c>
-      <c r="L23" s="15"/>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="4" t="s">
+      <c r="Q23" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="R23" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Q23" s="15"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="T23" s="15"/>
+    </row>
+    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
-      <c r="K24" s="15">
+      <c r="M24" s="15">
         <v>21</v>
       </c>
-      <c r="L24" s="15"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="15"/>
+      <c r="P24" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Q24" s="15"/>
-    </row>
-    <row r="25" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="T24" s="15"/>
+    </row>
+    <row r="25" spans="1:20" ht="17" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="K25" s="15">
+      <c r="M25" s="15">
         <v>22</v>
       </c>
-      <c r="L25" s="15"/>
-      <c r="M25" s="18"/>
-      <c r="O25" s="1" t="s">
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q25" s="15"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="T25" s="15"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
-      <c r="K26" s="15">
+      <c r="M26" s="15">
         <v>23</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="N26" s="15"/>
+      <c r="R26" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
-      <c r="K27" s="15">
+      <c r="M27" s="15">
         <v>24</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="N27" s="15"/>
+      <c r="R27" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
-      <c r="K28" s="15">
+      <c r="M28" s="15">
         <v>25</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="N28" s="15"/>
+      <c r="R28" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-      <c r="K29" s="15">
+      <c r="M29" s="15">
         <v>26</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="N29" s="15"/>
+      <c r="R29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A30" s="23" t="s">
+    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.15">
+      <c r="A30" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="H30" s="22" t="s">
+      <c r="B30" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" s="37"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I30" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="K30" s="15">
+      <c r="K30" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M30" s="15">
         <v>27</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="N30" s="15"/>
+      <c r="R30" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>85</v>
       </c>
@@ -4627,20 +5047,23 @@
       <c r="D31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K31" s="15">
+      <c r="M31" s="15">
         <v>28</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="N31" s="15"/>
+      <c r="R31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>87</v>
       </c>
@@ -4653,20 +5076,23 @@
       <c r="D32" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K32" s="15">
+      <c r="M32" s="15">
         <v>29</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="N32" s="15"/>
+      <c r="R32" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>88</v>
       </c>
@@ -4679,20 +5105,23 @@
       <c r="D33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K33" s="15">
+      <c r="M33" s="15">
         <v>30</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="N33" s="15"/>
+      <c r="R33" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>93</v>
       </c>
@@ -4705,20 +5134,23 @@
       <c r="D34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K34" s="15">
+      <c r="M34" s="15">
         <v>31</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="N34" s="15"/>
+      <c r="R34" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>94</v>
       </c>
@@ -4731,20 +5163,23 @@
       <c r="D35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K35" s="15">
+      <c r="M35" s="15">
         <v>32</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="N35" s="15"/>
+      <c r="R35" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>95</v>
       </c>
@@ -4757,17 +5192,20 @@
       <c r="D36" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K36" s="15">
+      <c r="M36" s="15">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="N36" s="15"/>
+    </row>
+    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>96</v>
       </c>
@@ -4780,17 +5218,20 @@
       <c r="D37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K37" s="15">
+      <c r="M37" s="15">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>97</v>
       </c>
@@ -4805,17 +5246,20 @@
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="1"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="K38" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K38" s="15">
+      <c r="M38" s="15">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>98</v>
       </c>
@@ -4830,17 +5274,20 @@
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="4"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="K39" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="K39" s="15">
+      <c r="M39" s="15">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>77</v>
       </c>
@@ -4855,17 +5302,20 @@
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K40" s="15">
+      <c r="M40" s="15">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="N40" s="15"/>
+    </row>
+    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>123</v>
       </c>
@@ -4878,22 +5328,25 @@
       <c r="D41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K41" s="15">
+      <c r="M41" s="15">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="N41" s="15"/>
+    </row>
+    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>125</v>
+        <v>71</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>73</v>
@@ -4901,17 +5354,20 @@
       <c r="D42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="4"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K42" s="15">
+      <c r="M42" s="15">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="N42" s="15"/>
+    </row>
+    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>108</v>
       </c>
@@ -4924,17 +5380,20 @@
       <c r="D43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K43" s="15">
+      <c r="M43" s="15">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="N43" s="15"/>
+    </row>
+    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -4942,70 +5401,123 @@
         <v>92</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="H46" s="39"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="5"/>
-      <c r="H47" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="H47" s="39"/>
+      <c r="J47" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="H48" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H48" s="39"/>
+      <c r="J48" s="35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-    </row>
-    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="H52" s="19" t="s">
+      <c r="H49" s="39"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="H50" s="39"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="K50" s="15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="H51" s="39"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="K51" s="15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="H52" s="39"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="28"/>
+    </row>
+    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="H53" s="18"/>
+      <c r="I53" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K53" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="I52" s="19" t="s">
-        <v>167</v>
-      </c>
+      <c r="L53" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
